--- a/SEROFOI/Tabla resumen FOI/VPH16.xlsx
+++ b/SEROFOI/Tabla resumen FOI/VPH16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\Tabla resumen FOI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52DD2BE-4814-4BB1-A711-5ECBA50240B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA81E74-59D4-4A83-97F4-AD607DF78D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC4CBCC1-EF41-4FA3-A541-C901C7B0E985}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>País</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Estado Unidos</t>
   </si>
   <si>
-    <t>0.09</t>
-  </si>
-  <si>
     <t>Puerto Rico</t>
   </si>
   <si>
@@ -96,13 +93,28 @@
   </si>
   <si>
     <t>Edad_ FOI _max</t>
+  </si>
+  <si>
+    <t>Poblacion_ por_ millon</t>
+  </si>
+  <si>
+    <t>tasa_per_capita</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
+  <si>
+    <t>tiempo_meses_seror</t>
+  </si>
+  <si>
+    <t>0.098</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +135,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -168,11 +192,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -183,6 +235,16 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,18 +579,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489BC34F-5720-44A1-9D7F-CA19D0A0FB32}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,16 +600,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -558,11 +634,26 @@
       <c r="D2" s="2">
         <v>22</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="7">
         <v>1.2</v>
       </c>
+      <c r="F2" s="6">
+        <v>40156000</v>
+      </c>
+      <c r="G2" s="5">
+        <f>0.33/40156000*100000</f>
+        <v>8.2179499950194251E-4</v>
+      </c>
+      <c r="H2" s="5">
+        <f>1/E2</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I2" s="5">
+        <f>(H2*12)/1</f>
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -575,11 +666,26 @@
       <c r="D3" s="2">
         <v>25</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="7">
         <v>1.1000000000000001</v>
       </c>
+      <c r="F3" s="6">
+        <v>4152000</v>
+      </c>
+      <c r="G3" s="5">
+        <f>0.52/452000*100000</f>
+        <v>0.11504424778761062</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H8" si="0">1/E3</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I7" si="1">(H3*12)/1</f>
+        <v>10.909090909090908</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -592,11 +698,26 @@
       <c r="D4" s="2">
         <v>25</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
+      <c r="F4" s="8">
+        <v>256514224</v>
+      </c>
+      <c r="G4" s="5">
+        <f>0.32/256514224*100000</f>
+        <v>1.2474941740462704E-4</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -604,65 +725,122 @@
         <v>2002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>45</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="7">
         <v>1</v>
       </c>
+      <c r="F5" s="6">
+        <v>287625193</v>
+      </c>
+      <c r="G5" s="5">
+        <f>0.098/287625193*100000</f>
+        <v>3.4072119683897092E-5</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>2010</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2">
         <v>25</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
         <v>1.2</v>
       </c>
+      <c r="F6" s="9">
+        <v>3725789</v>
+      </c>
+      <c r="G6" s="5">
+        <f>0.6/372789*100000</f>
+        <v>0.16094895503890941</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
         <v>2016</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2">
         <v>20</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="7">
         <v>1.3</v>
       </c>
+      <c r="F7" s="8">
+        <v>188666931</v>
+      </c>
+      <c r="G7" s="5">
+        <f>1.2*188666931*100000</f>
+        <v>22640031720000</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>9.2307692307692299</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2">
         <v>2004</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="8">
+        <v>23265000</v>
+      </c>
+      <c r="G8" s="5">
+        <f>0.007/23265000*100000</f>
+        <v>3.0088115194498174E-5</v>
+      </c>
+      <c r="H8" s="5" t="e">
+        <f>1/C8</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SEROFOI/Tabla resumen FOI/VPH16.xlsx
+++ b/SEROFOI/Tabla resumen FOI/VPH16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\Tabla resumen FOI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA81E74-59D4-4A83-97F4-AD607DF78D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6BC9B1-10F0-4218-8A53-8409F8555819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC4CBCC1-EF41-4FA3-A541-C901C7B0E985}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>País</t>
   </si>
@@ -80,25 +80,10 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>Taiwan </t>
-  </si>
-  <si>
-    <t>0.007</t>
-  </si>
-  <si>
-    <t>0.015</t>
-  </si>
-  <si>
     <t>FOI_max</t>
   </si>
   <si>
     <t>Edad_ FOI _max</t>
-  </si>
-  <si>
-    <t>Poblacion_ por_ millon</t>
-  </si>
-  <si>
-    <t>tasa_per_capita</t>
   </si>
   <si>
     <t>Tiempo</t>
@@ -114,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,18 +117,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -224,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -239,12 +212,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,20 +551,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489BC34F-5720-44A1-9D7F-CA19D0A0FB32}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,28 +570,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -634,26 +598,19 @@
       <c r="D2" s="2">
         <v>22</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>1.2</v>
       </c>
-      <c r="F2" s="6">
-        <v>40156000</v>
-      </c>
-      <c r="G2" s="5">
-        <f>0.33/40156000*100000</f>
-        <v>8.2179499950194251E-4</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="F2" s="7">
         <f>1/E2</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="I2" s="5">
-        <f>(H2*12)/1</f>
+      <c r="G2" s="5">
+        <f>(F2*12)/1</f>
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -666,26 +623,19 @@
       <c r="D3" s="2">
         <v>25</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F3" s="6">
-        <v>4152000</v>
-      </c>
-      <c r="G3" s="5">
-        <f>0.52/452000*100000</f>
-        <v>0.11504424778761062</v>
-      </c>
-      <c r="H3" s="5">
-        <f t="shared" ref="H3:H8" si="0">1/E3</f>
+      <c r="F3" s="7">
+        <f>1/E3</f>
         <v>0.90909090909090906</v>
       </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I7" si="1">(H3*12)/1</f>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G7" si="0">(F3*12)/1</f>
         <v>10.909090909090908</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -698,26 +648,19 @@
       <c r="D4" s="2">
         <v>25</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="F4" s="8">
-        <v>256514224</v>
-      </c>
-      <c r="G4" s="5">
-        <f>0.32/256514224*100000</f>
-        <v>1.2474941740462704E-4</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="F4" s="7">
+        <f>1/E4</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -725,31 +668,24 @@
         <v>2002</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>45</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
-        <v>287625193</v>
-      </c>
-      <c r="G5" s="5">
-        <f>0.098/287625193*100000</f>
-        <v>3.4072119683897092E-5</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="F5" s="7">
+        <f>1/E5</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -762,26 +698,19 @@
       <c r="D6" s="2">
         <v>25</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>1.2</v>
       </c>
-      <c r="F6" s="9">
-        <v>3725789</v>
-      </c>
-      <c r="G6" s="5">
-        <f>0.6/372789*100000</f>
-        <v>0.16094895503890941</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="F6" s="7">
+        <f>1/E6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -794,53 +723,20 @@
       <c r="D7" s="2">
         <v>20</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>1.3</v>
       </c>
-      <c r="F7" s="8">
-        <v>188666931</v>
-      </c>
-      <c r="G7" s="5">
-        <f>1.2*188666931*100000</f>
-        <v>22640031720000</v>
-      </c>
-      <c r="H7" s="5">
+      <c r="F7" s="7">
+        <f>1/E7</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
-        <v>0.76923076923076916</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="1"/>
         <v>9.2307692307692299</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2004</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2">
-        <v>22</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="8">
-        <v>23265000</v>
-      </c>
-      <c r="G8" s="5">
-        <f>0.007/23265000*100000</f>
-        <v>3.0088115194498174E-5</v>
-      </c>
-      <c r="H8" s="5" t="e">
-        <f>1/C8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I8" s="5"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SEROFOI/Tabla resumen FOI/VPH16.xlsx
+++ b/SEROFOI/Tabla resumen FOI/VPH16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\Tabla resumen FOI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6BC9B1-10F0-4218-8A53-8409F8555819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1D7F0A-974B-4F43-B26F-74ACB8506EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC4CBCC1-EF41-4FA3-A541-C901C7B0E985}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>País</t>
   </si>
@@ -47,52 +47,55 @@
     <t>Seroreversión</t>
   </si>
   <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
     <t>0.52</t>
   </si>
   <si>
-    <t>Estados Unidos</t>
-  </si>
-  <si>
     <t>0.32</t>
   </si>
   <si>
-    <t>Estado Unidos</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>Nigeria </t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
-    <t>FOI_max</t>
-  </si>
-  <si>
-    <t>Edad_ FOI _max</t>
-  </si>
-  <si>
-    <t>Tiempo</t>
-  </si>
-  <si>
-    <t>tiempo_meses_seror</t>
-  </si>
-  <si>
-    <t>0.098</t>
+    <t>FOI máxima</t>
+  </si>
+  <si>
+    <t>Edad FOI máxima</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>1.27</t>
+  </si>
+  <si>
+    <t>Estados Unidos(1992)</t>
+  </si>
+  <si>
+    <t>Estado Unidos(2003)</t>
+  </si>
+  <si>
+    <t>Colombia(2002)</t>
+  </si>
+  <si>
+    <t>Brasil(1994)</t>
+  </si>
+  <si>
+    <t>Costa Rica(2004)</t>
+  </si>
+  <si>
+    <t>Nigeria(2016)</t>
   </si>
 </sst>
 </file>
@@ -129,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -180,39 +183,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -551,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489BC34F-5720-44A1-9D7F-CA19D0A0FB32}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,7 +542,7 @@
     <col min="5" max="5" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,24 +550,20 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>2002</v>
@@ -598,121 +574,88 @@
       <c r="D2" s="2">
         <v>22</v>
       </c>
-      <c r="E2" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="F2" s="7">
-        <f>1/E2</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G2" s="5">
-        <f>(F2*12)/1</f>
-        <v>10</v>
-      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1994</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
         <v>2004</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F3" s="7">
-        <f>1/E3</f>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="G3" s="7">
-        <f t="shared" ref="G3:G7" si="0">(F3*12)/1</f>
-        <v>10.909090909090908</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1992</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>25</v>
       </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <f>1/E4</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" si="0"/>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1992</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="D6" s="2">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2002</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>45</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <f>1/E5</f>
-        <v>1</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2010</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <v>25</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="F6" s="7">
-        <f>1/E6</f>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>2016</v>
@@ -721,22 +664,11 @@
         <v>13</v>
       </c>
       <c r="D7" s="2">
-        <v>20</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1.3</v>
-      </c>
-      <c r="F7" s="7">
-        <f>1/E7</f>
-        <v>0.76923076923076916</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="0"/>
-        <v>9.2307692307692299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F8" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SEROFOI/Tabla resumen FOI/VPH16.xlsx
+++ b/SEROFOI/Tabla resumen FOI/VPH16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\Tabla resumen FOI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1D7F0A-974B-4F43-B26F-74ACB8506EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B48A79F-66C9-4E27-B33E-AD06C8DD63EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CC4CBCC1-EF41-4FA3-A541-C901C7B0E985}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
